--- a/DataBases/Prices_Fuels/LowPrice_Oil_AEO_2019/Price_AEO_LowOil.xlsx
+++ b/DataBases/Prices_Fuels/LowPrice_Oil_AEO_2019/Price_AEO_LowOil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\DataBases\Prices_Fuels\LowPrice_Oil_AEO_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E056E1-7456-4AEB-81A1-A2EC91163EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC83BA-3A04-42E1-ADB3-613919C71C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ethanol" sheetId="9" r:id="rId1"/>
@@ -22,10 +22,12 @@
     <sheet name="Jet Fuel" sheetId="4" r:id="rId7"/>
     <sheet name="Distilate Fuel Oil" sheetId="2" r:id="rId8"/>
     <sheet name="MotorGasoline" sheetId="11" r:id="rId9"/>
-    <sheet name="LowOil_AEO" sheetId="10" r:id="rId10"/>
+    <sheet name="LowOil_AEO_Final" sheetId="12" r:id="rId10"/>
+    <sheet name="LowOil_AEO" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">LowOil_AEO!$E$7:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">LowOil_AEO!$E$7:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">LowOil_AEO_Final!$C$6:$M$6</definedName>
     <definedName name="DatosExternos_1" localSheetId="7" hidden="1">'Distilate Fuel Oil'!$A$1:$B$38</definedName>
     <definedName name="DatosExternos_1" localSheetId="8" hidden="1">MotorGasoline!$A$1:$B$38</definedName>
     <definedName name="DatosExternos_2" localSheetId="5" hidden="1">Electricity!$A$1:$B$38</definedName>
@@ -54,6 +56,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>JULIAN</author>
+  </authors>
+  <commentList>
+    <comment ref="Z7" authorId="0" shapeId="0" xr:uid="{07A91028-03CE-47E9-B9F3-232CFCF7D72D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JULIAN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Debe ser igual en todos</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -89,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="116">
   <si>
     <t>Column1</t>
   </si>
@@ -413,6 +449,30 @@
   </si>
   <si>
     <t>Series ID: AEO.2020.LOWPRICE.PRCE_REAL_TEN_NA_MGS_NA_NA_Y13DLRPMMBTU.A 2019 $/MMBtu</t>
+  </si>
+  <si>
+    <t>AVGAS USD2019/MBTU</t>
+  </si>
+  <si>
+    <t>% cambio de JetFuel, 209</t>
+  </si>
+  <si>
+    <t>Aviantion Gas price, 2019</t>
+  </si>
+  <si>
+    <t>USD2020/gal</t>
+  </si>
+  <si>
+    <t>MMBTU</t>
+  </si>
+  <si>
+    <t>Thermal conversion, https://www.eia.gov/totalenergy/data/monthly/pdf/mer_a_doc.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MBTU/b</t>
+  </si>
+  <si>
+    <t>MBTU/gal</t>
   </si>
 </sst>
 </file>
@@ -422,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +512,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +559,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -569,22 +662,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -596,11 +706,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -671,6 +804,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>443592</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>26469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E2CCC8-47DD-4049-B80C-6D0171FBC0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4689021" y="9080047"/>
+          <a:ext cx="9546771" cy="1319147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -822,8 +1004,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1EC058EA-8847-4DE8-A73A-8C09B611BA1D}" name="Real_Petroleum_Prices_Transportation_Ethanol_Wholesale_Price_Low_price_AEO2020" displayName="Real_Petroleum_Prices_Transportation_Ethanol_Wholesale_Price_Low_price_AEO2020" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{1EC058EA-8847-4DE8-A73A-8C09B611BA1D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{72D1803D-2154-4345-9AC1-42DF1E91203E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{ADB2A01B-25D7-473D-AA11-7C2FB11A1BE6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{72D1803D-2154-4345-9AC1-42DF1E91203E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{ADB2A01B-25D7-473D-AA11-7C2FB11A1BE6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -833,8 +1015,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D4451240-AFA5-436D-8113-AC9C6AD574D6}" name="Real_Petroleum_Prices_Crude_Oil_West_Texas_Intermediate_Spot_Low_price_AEO2020" displayName="Real_Petroleum_Prices_Crude_Oil_West_Texas_Intermediate_Spot_Low_price_AEO2020" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{D4451240-AFA5-436D-8113-AC9C6AD574D6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CABB3E26-677E-4E2D-A000-08E74454B662}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1B58DDFB-4386-4291-8250-97188C5C6CE6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CABB3E26-677E-4E2D-A000-08E74454B662}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{1B58DDFB-4386-4291-8250-97188C5C6CE6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -844,8 +1026,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3F242088-DA12-46C9-A163-1C8E50199FA5}" name="Energy_Prices_Average_Price_to_All_Users_Residual_Fuel_Oil_United_States_Low_pri" displayName="Energy_Prices_Average_Price_to_All_Users_Residual_Fuel_Oil_United_States_Low_pri" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{3F242088-DA12-46C9-A163-1C8E50199FA5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7B9D4098-77AC-455A-8B5A-A5220621532A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5BAC8FB8-54C5-4C42-91F3-08E4E7900101}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7B9D4098-77AC-455A-8B5A-A5220621532A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5BAC8FB8-54C5-4C42-91F3-08E4E7900101}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,8 +1037,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{59082521-DCCB-44FA-AD3C-844CC6FBE97D}" name="Energy_Prices_Average_Price_to_All_Users_Propane_United_States_Low_price_AEO2020" displayName="Energy_Prices_Average_Price_to_All_Users_Propane_United_States_Low_price_AEO2020" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{59082521-DCCB-44FA-AD3C-844CC6FBE97D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1F4597EA-CCA8-4138-9A4B-9B6C3392A477}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8BD9D2A6-4AFF-4EF5-815A-428511836C33}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1F4597EA-CCA8-4138-9A4B-9B6C3392A477}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8BD9D2A6-4AFF-4EF5-815A-428511836C33}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -866,8 +1048,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6CBB6957-06C1-40AB-8D9E-04BC023E16A0}" name="Energy_Prices_Average_Price_to_All_Users_Natural_Gas_United_States_Low_price_AEO" displayName="Energy_Prices_Average_Price_to_All_Users_Natural_Gas_United_States_Low_price_AEO" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{6CBB6957-06C1-40AB-8D9E-04BC023E16A0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{99E38B12-F991-4861-8C14-B5FD77E67956}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{CD9E7A47-38B0-454C-BDC7-B354D09E1159}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{99E38B12-F991-4861-8C14-B5FD77E67956}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CD9E7A47-38B0-454C-BDC7-B354D09E1159}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -877,8 +1059,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F1C7F77-6649-4DBB-978C-7261EF5BC2B4}" name="Energy_Prices_Average_Price_to_All_Users_Electricity_United_States_Low_price_AEO" displayName="Energy_Prices_Average_Price_to_All_Users_Electricity_United_States_Low_price_AEO" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{5F1C7F77-6649-4DBB-978C-7261EF5BC2B4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3C425FE8-1E5B-4C3C-9B76-5395B77CCB0D}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{5C990AA5-D33F-44EC-99CC-84FB1471ACD6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{3C425FE8-1E5B-4C3C-9B76-5395B77CCB0D}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{5C990AA5-D33F-44EC-99CC-84FB1471ACD6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -888,8 +1070,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5C057F17-47F6-4EF1-BE8D-97B7BB3F65B9}" name="Energy_Prices_Average_Price_to_All_Users_Jet_Fuel_United_States_Low_price_AEO202" displayName="Energy_Prices_Average_Price_to_All_Users_Jet_Fuel_United_States_Low_price_AEO202" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{5C057F17-47F6-4EF1-BE8D-97B7BB3F65B9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E49EE6C1-086C-4297-A843-2EA72DA11AE8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{EA67BE11-2D58-4952-B4A4-69DAAEACC2C1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{E49EE6C1-086C-4297-A843-2EA72DA11AE8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EA67BE11-2D58-4952-B4A4-69DAAEACC2C1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -899,8 +1081,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17FF59BD-6A44-42A2-ADF0-0DA9D1AFFD82}" name="Energy_Prices_Average_Price_to_All_Users_Distillate_Fuel_Oil_United_States_Low_p" displayName="Energy_Prices_Average_Price_to_All_Users_Distillate_Fuel_Oil_United_States_Low_p" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{17FF59BD-6A44-42A2-ADF0-0DA9D1AFFD82}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5D0A5911-6C11-45C5-9BBC-B3EC3E55688E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C360ECB7-3E63-4144-9B6D-C9ADF0883D7E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{5D0A5911-6C11-45C5-9BBC-B3EC3E55688E}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C360ECB7-3E63-4144-9B6D-C9ADF0883D7E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -910,8 +1092,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAE26401-08BC-4CDA-87CB-208A101C7586}" name="Energy_Prices_Average_Price_to_All_Users_Motor_Gasoline_United_States_Low_price_" displayName="Energy_Prices_Average_Price_to_All_Users_Motor_Gasoline_United_States_Low_price_" ref="A1:B38" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B38" xr:uid="{EAE26401-08BC-4CDA-87CB-208A101C7586}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{35ED1925-9DDE-42A4-8E34-A17C02F58814}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{81F75CC8-7234-479D-81F9-84D31FDC2E0F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{35ED1925-9DDE-42A4-8E34-A17C02F58814}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{81F75CC8-7234-479D-81F9-84D31FDC2E0F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,32 +1382,32 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E4" t="s">
@@ -1233,10 +1415,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -1251,18 +1433,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2.0489380000000001</v>
       </c>
       <c r="C7">
@@ -1271,10 +1453,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>2.0423450000000001</v>
       </c>
       <c r="C8">
@@ -1283,10 +1465,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>2.0374080000000001</v>
       </c>
       <c r="C9">
@@ -1295,10 +1477,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>2.016572</v>
       </c>
       <c r="C10">
@@ -1307,10 +1489,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>2.011511</v>
       </c>
       <c r="C11">
@@ -1319,10 +1501,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>2.022519</v>
       </c>
       <c r="C12">
@@ -1331,10 +1513,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>2.0271560000000002</v>
       </c>
       <c r="C13">
@@ -1343,10 +1525,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>2.0007609999999998</v>
       </c>
       <c r="C14">
@@ -1355,10 +1537,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>1.9984109999999999</v>
       </c>
       <c r="C15">
@@ -1367,10 +1549,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>1.9827699999999999</v>
       </c>
       <c r="C16">
@@ -1379,10 +1561,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1.968574</v>
       </c>
       <c r="C17">
@@ -1391,10 +1573,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>1.933851</v>
       </c>
       <c r="C18">
@@ -1403,10 +1585,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>1.905257</v>
       </c>
       <c r="C19">
@@ -1415,10 +1597,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>1.8741140000000001</v>
       </c>
       <c r="C20">
@@ -1427,10 +1609,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>1.849218</v>
       </c>
       <c r="C21">
@@ -1439,10 +1621,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>1.847791</v>
       </c>
       <c r="C22">
@@ -1451,10 +1633,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>1.835429</v>
       </c>
       <c r="C23">
@@ -1463,10 +1645,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>1.8394269999999999</v>
       </c>
       <c r="C24">
@@ -1475,10 +1657,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>1.7703549999999999</v>
       </c>
       <c r="C25">
@@ -1487,10 +1669,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1.7588950000000001</v>
       </c>
       <c r="C26">
@@ -1499,10 +1681,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1.7569509999999999</v>
       </c>
       <c r="C27">
@@ -1511,10 +1693,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1.6805030000000001</v>
       </c>
       <c r="C28">
@@ -1523,10 +1705,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1.6427560000000001</v>
       </c>
       <c r="C29">
@@ -1535,10 +1717,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1.575963</v>
       </c>
       <c r="C30">
@@ -1547,10 +1729,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>1.511719</v>
       </c>
       <c r="C31">
@@ -1559,10 +1741,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>1.501037</v>
       </c>
       <c r="C32">
@@ -1571,10 +1753,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>1.4542120000000001</v>
       </c>
       <c r="C33">
@@ -1583,10 +1765,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>1.4562189999999999</v>
       </c>
       <c r="C34">
@@ -1595,10 +1777,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>1.4657910000000001</v>
       </c>
       <c r="C35">
@@ -1607,10 +1789,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>1.396056</v>
       </c>
       <c r="C36">
@@ -1619,10 +1801,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>1.3374630000000001</v>
       </c>
       <c r="C37">
@@ -1631,10 +1813,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>1.3820220000000001</v>
       </c>
       <c r="C38">
@@ -1652,10 +1834,2446 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6513D269-EF74-4E24-A1B8-AEAD8B991A71}">
+  <dimension ref="C4:AB65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8:AB38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:28" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2">
+        <v>22.055983999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14.641048</v>
+      </c>
+      <c r="F7" s="2">
+        <v>22.152479</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.0315300000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>18.517455999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9.6494669999999996</v>
+      </c>
+      <c r="J7">
+        <v>9.9389069659747591</v>
+      </c>
+      <c r="K7">
+        <v>16.336877005347596</v>
+      </c>
+      <c r="L7">
+        <v>28.503195372270948</v>
+      </c>
+      <c r="M7">
+        <v>30.453309999999998</v>
+      </c>
+      <c r="P7">
+        <f>+(D7-$D$38)/$D$38</f>
+        <v>0.24231859761189198</v>
+      </c>
+      <c r="Q7">
+        <f>+$Q$38*(100%+P7)</f>
+        <v>4.518153722733957</v>
+      </c>
+      <c r="R7">
+        <f>+Q7/$E$54</f>
+        <v>35.41004970233741</v>
+      </c>
+      <c r="V7" s="10">
+        <v>44.345604000000002</v>
+      </c>
+      <c r="W7">
+        <f>+V7/$D$65</f>
+        <v>7.833966990242339</v>
+      </c>
+      <c r="Z7" s="20">
+        <f>+Z8*(100%-AA8)</f>
+        <v>26.803434079521526</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="10">
+        <v>16.950485</v>
+      </c>
+      <c r="E8" s="10">
+        <v>9.7005839999999992</v>
+      </c>
+      <c r="F8" s="10">
+        <v>17.725964000000001</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4.77142</v>
+      </c>
+      <c r="H8" s="10">
+        <v>14.846825000000001</v>
+      </c>
+      <c r="I8" s="10">
+        <v>6.9323819999999996</v>
+      </c>
+      <c r="J8">
+        <v>5.8460911561473825</v>
+      </c>
+      <c r="K8">
+        <v>15.81014522938362</v>
+      </c>
+      <c r="L8">
+        <v>21.905301781582185</v>
+      </c>
+      <c r="M8">
+        <v>29.811402999999999</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P38" si="0">+(D8-$D$38)/$D$38</f>
+        <v>-4.525217491808968E-2</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q36" si="1">+$Q$38*(100%+P8)</f>
+        <v>3.4722956321012979</v>
+      </c>
+      <c r="R8">
+        <f>+Q8/$E$54</f>
+        <v>27.213363789560461</v>
+      </c>
+      <c r="V8" s="2">
+        <v>44.135139000000002</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:W38" si="2">+V8/$D$65</f>
+        <v>7.7967868480437721</v>
+      </c>
+      <c r="Z8" s="16">
+        <f>+R43</f>
+        <v>22.339540412044375</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>+(F8-$F$7)/$F$7</f>
+        <v>-0.19982030002150092</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>22.339540412044375</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16.387792999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.0484980000000004</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17.237448000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.860271</v>
+      </c>
+      <c r="H9" s="2">
+        <v>13.301057</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6.8701829999999999</v>
+      </c>
+      <c r="J9">
+        <v>5.4210081781380959</v>
+      </c>
+      <c r="K9">
+        <v>16.502772867998875</v>
+      </c>
+      <c r="L9">
+        <v>21.178128602166844</v>
+      </c>
+      <c r="M9">
+        <v>29.724421</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-7.69461921211958E-2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>3.3570285483678028</v>
+      </c>
+      <c r="R9">
+        <f>+Q9/$E$54</f>
+        <v>26.309983025088211</v>
+      </c>
+      <c r="V9" s="10">
+        <v>43.981110000000001</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>7.7695765274550599</v>
+      </c>
+      <c r="Z9">
+        <f>+$Z$8*(100%+AA9)</f>
+        <v>17.38300558580886</v>
+      </c>
+      <c r="AA9" s="17">
+        <f t="shared" ref="AA9:AA38" si="3">+(F9-$F$7)/$F$7</f>
+        <v>-0.22187273036123853</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>17.38300558580886</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="10">
+        <v>16.584773999999999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9.2805809999999997</v>
+      </c>
+      <c r="F10" s="10">
+        <v>17.141463999999999</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4.8739290000000004</v>
+      </c>
+      <c r="H10" s="10">
+        <v>13.114326999999999</v>
+      </c>
+      <c r="I10" s="10">
+        <v>6.9828840000000003</v>
+      </c>
+      <c r="J10">
+        <v>5.6766850977439196</v>
+      </c>
+      <c r="K10">
+        <v>17.32711004784689</v>
+      </c>
+      <c r="L10">
+        <v>21.432689356637166</v>
+      </c>
+      <c r="M10">
+        <v>29.674088000000001</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>-6.5851100663195591E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>3.397379975828843</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R37" si="4">+Q10/$E$54</f>
+        <v>26.626228584588805</v>
+      </c>
+      <c r="V10" s="2">
+        <v>43.747295000000001</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>7.7282714413449805</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:Z38" si="5">+$Z$8*(100%+AA10)</f>
+        <v>17.28621107143827</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.22620560886210525</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>17.28621107143827</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16.503633000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.4126089999999998</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17.011948</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.923</v>
+      </c>
+      <c r="H11" s="2">
+        <v>13.168752</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7.230556</v>
+      </c>
+      <c r="J11">
+        <v>5.8552743235714582</v>
+      </c>
+      <c r="K11">
+        <v>17.213959470869685</v>
+      </c>
+      <c r="L11">
+        <v>21.327829932741071</v>
+      </c>
+      <c r="M11">
+        <v>29.747502999999998</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>-7.0421423770467742E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>3.3807582956890516</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>26.49595977214782</v>
+      </c>
+      <c r="V11" s="10">
+        <v>43.562739999999998</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>7.6956684853026136</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="5"/>
+        <v>17.155601403960137</v>
+      </c>
+      <c r="AA11" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.23205217799777619</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>17.155601403960137</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>2024</v>
+      </c>
+      <c r="D12" s="10">
+        <v>16.544916000000001</v>
+      </c>
+      <c r="E12" s="10">
+        <v>9.5380599999999998</v>
+      </c>
+      <c r="F12" s="10">
+        <v>16.842721999999998</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5.053318</v>
+      </c>
+      <c r="H12" s="10">
+        <v>13.341879</v>
+      </c>
+      <c r="I12" s="10">
+        <v>7.4027380000000003</v>
+      </c>
+      <c r="J12">
+        <v>6.0149034699475656</v>
+      </c>
+      <c r="K12">
+        <v>17.19023473121306</v>
+      </c>
+      <c r="L12">
+        <v>21.381180416426293</v>
+      </c>
+      <c r="M12">
+        <v>29.995864999999998</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>-6.8096130160116397E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>3.3892150909123173</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>26.562238070221557</v>
+      </c>
+      <c r="V12" s="2">
+        <v>43.625827999999998</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>7.7068134301201523</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>16.98494641470279</v>
+      </c>
+      <c r="AA12" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.2396913230343205</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>16.98494641470279</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>2025</v>
+      </c>
+      <c r="D13" s="2">
+        <v>16.561509999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9.6156070000000007</v>
+      </c>
+      <c r="F13" s="2">
+        <v>16.734932000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.2639560000000003</v>
+      </c>
+      <c r="H13" s="2">
+        <v>13.653877</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7.4363780000000004</v>
+      </c>
+      <c r="J13">
+        <v>6.1467716554706273</v>
+      </c>
+      <c r="K13">
+        <v>17.74375288488601</v>
+      </c>
+      <c r="L13">
+        <v>21.402625028646149</v>
+      </c>
+      <c r="M13">
+        <v>30.402079000000001</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>-6.7161461599930236E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>3.3926143608281389</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>26.588879110800864</v>
+      </c>
+      <c r="V13" s="10">
+        <v>43.122135</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>7.6178324719350714</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="5"/>
+        <v>16.876246207334837</v>
+      </c>
+      <c r="AA13" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.24455714414626006</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>16.876246207334837</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>2026</v>
+      </c>
+      <c r="D14" s="10">
+        <v>16.707825</v>
+      </c>
+      <c r="E14" s="10">
+        <v>9.7851110000000006</v>
+      </c>
+      <c r="F14" s="10">
+        <v>16.778722999999999</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5.4217820000000003</v>
+      </c>
+      <c r="H14" s="10">
+        <v>13.954438</v>
+      </c>
+      <c r="I14" s="10">
+        <v>7.6230700000000002</v>
+      </c>
+      <c r="J14">
+        <v>6.3103107540348944</v>
+      </c>
+      <c r="K14">
+        <v>17.870024767801858</v>
+      </c>
+      <c r="L14">
+        <v>21.591709543347189</v>
+      </c>
+      <c r="M14">
+        <v>30.596184000000001</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>-5.8920167735662575E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>3.4225868917268656</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>26.823782319934381</v>
+      </c>
+      <c r="V14" s="2">
+        <v>42.663043999999999</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>7.5367307749209242</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="5"/>
+        <v>16.920406990161165</v>
+      </c>
+      <c r="AA14" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.24258034507108664</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>16.920406990161165</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
+        <v>2027</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16.783676</v>
+      </c>
+      <c r="E15" s="2">
+        <v>9.8999179999999996</v>
+      </c>
+      <c r="F15" s="2">
+        <v>16.843440999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.5409459999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>14.141339</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.7486030000000001</v>
+      </c>
+      <c r="J15">
+        <v>6.4288277238834208</v>
+      </c>
+      <c r="K15">
+        <v>18.62945285674078</v>
+      </c>
+      <c r="L15">
+        <v>21.689732640942022</v>
+      </c>
+      <c r="M15">
+        <v>30.791485000000002</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>-5.464780754772175E-2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3.4381249188683025</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>26.945558237071975</v>
+      </c>
+      <c r="V15" s="10">
+        <v>42.240012999999998</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>7.4619993339003168</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="5"/>
+        <v>16.985671486129615</v>
+      </c>
+      <c r="AA15" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.23965886617023771</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>16.985671486129615</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>2028</v>
+      </c>
+      <c r="D16" s="10">
+        <v>16.769113999999998</v>
+      </c>
+      <c r="E16" s="10">
+        <v>9.9187809999999992</v>
+      </c>
+      <c r="F16" s="10">
+        <v>16.888532999999999</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5.6131640000000003</v>
+      </c>
+      <c r="H16" s="10">
+        <v>14.262862999999999</v>
+      </c>
+      <c r="I16" s="10">
+        <v>7.7569189999999999</v>
+      </c>
+      <c r="J16">
+        <v>6.4455765860783041</v>
+      </c>
+      <c r="K16">
+        <v>19.419012665353222</v>
+      </c>
+      <c r="L16">
+        <v>21.670914005101018</v>
+      </c>
+      <c r="M16">
+        <v>30.755602</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>-5.5468022298440937E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>3.4351419028074246</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>26.922179495785002</v>
+      </c>
+      <c r="V16" s="2">
+        <v>41.906238999999999</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>7.4030357780492988</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>17.031144254945236</v>
+      </c>
+      <c r="AA16" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.23762333777632746</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>17.031144254945236</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <v>2029</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16.802975</v>
+      </c>
+      <c r="E17" s="2">
+        <v>9.9782410000000006</v>
+      </c>
+      <c r="F17" s="2">
+        <v>16.919364999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5.6257210000000004</v>
+      </c>
+      <c r="H17" s="2">
+        <v>14.306072</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7.7771509999999999</v>
+      </c>
+      <c r="J17">
+        <v>6.497231306620928</v>
+      </c>
+      <c r="K17">
+        <v>19.865219814241485</v>
+      </c>
+      <c r="L17">
+        <v>21.714672954985119</v>
+      </c>
+      <c r="M17">
+        <v>30.690297999999999</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>-5.3560777986251626E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>3.4420783062435856</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>26.976542053037992</v>
+      </c>
+      <c r="V17" s="10">
+        <v>41.676495000000003</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>7.3624498631025501</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="5"/>
+        <v>17.062236608536189</v>
+      </c>
+      <c r="AA17" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.23623152966311359</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>17.062236608536189</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D18" s="10">
+        <v>17.171029999999998</v>
+      </c>
+      <c r="E18" s="10">
+        <v>10.149875</v>
+      </c>
+      <c r="F18" s="10">
+        <v>17.40991</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5.6681879999999998</v>
+      </c>
+      <c r="H18" s="10">
+        <v>14.377727</v>
+      </c>
+      <c r="I18" s="10">
+        <v>7.8627279999999997</v>
+      </c>
+      <c r="J18">
+        <v>6.5450709398525007</v>
+      </c>
+      <c r="K18">
+        <v>20.768911342527439</v>
+      </c>
+      <c r="L18">
+        <v>22.190314557406534</v>
+      </c>
+      <c r="M18">
+        <v>30.663418</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>-3.2829824815264433E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>3.51747412936446</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="4"/>
+        <v>27.56744046152404</v>
+      </c>
+      <c r="V18" s="2">
+        <v>41.072246999999997</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>7.2557051475289391</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>17.556923900709059</v>
+      </c>
+      <c r="AA18" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.21408750686548442</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>17.556923900709059</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <v>2031</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17.186886000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10.192373</v>
+      </c>
+      <c r="F19" s="2">
+        <v>17.413017</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.6449150000000001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>14.336748999999999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7.7789000000000001</v>
+      </c>
+      <c r="J19">
+        <v>6.575441303125972</v>
+      </c>
+      <c r="K19">
+        <v>20.791891359414581</v>
+      </c>
+      <c r="L19">
+        <v>22.210805443953372</v>
+      </c>
+      <c r="M19">
+        <v>30.565812999999999</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>-3.1936724616980931E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>3.5207222204687918</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>27.592896670962727</v>
+      </c>
+      <c r="V19" s="10">
+        <v>40.531897999999998</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>7.160248645702727</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="5"/>
+        <v>17.560057137041671</v>
+      </c>
+      <c r="AA19" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.21394725168230605</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>17.560057137041671</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
+        <v>2032</v>
+      </c>
+      <c r="D20" s="10">
+        <v>17.270149</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10.300452</v>
+      </c>
+      <c r="F20" s="10">
+        <v>17.510418000000001</v>
+      </c>
+      <c r="G20" s="10">
+        <v>5.663062</v>
+      </c>
+      <c r="H20" s="10">
+        <v>14.324771999999999</v>
+      </c>
+      <c r="I20" s="10">
+        <v>7.8548650000000002</v>
+      </c>
+      <c r="J20">
+        <v>6.7082157397096793</v>
+      </c>
+      <c r="K20">
+        <v>20.927359977483814</v>
+      </c>
+      <c r="L20">
+        <v>22.318407152237224</v>
+      </c>
+      <c r="M20">
+        <v>30.651215000000001</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>-2.7246878387814394E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>3.5377785909039532</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>27.726572274298569</v>
+      </c>
+      <c r="V20" s="2">
+        <v>40.543658999999998</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>7.162326310171391</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="5"/>
+        <v>17.658280616936338</v>
+      </c>
+      <c r="AA20" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.20955040742844169</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>17.658280616936338</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
+        <v>2033</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17.339881999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10.40132</v>
+      </c>
+      <c r="F21" s="2">
+        <v>17.662077</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5.7102120000000003</v>
+      </c>
+      <c r="H21" s="2">
+        <v>14.391714</v>
+      </c>
+      <c r="I21" s="2">
+        <v>7.9062109999999999</v>
+      </c>
+      <c r="J21">
+        <v>6.7876402539616887</v>
+      </c>
+      <c r="K21">
+        <v>21.743859836757668</v>
+      </c>
+      <c r="L21">
+        <v>22.408523889848865</v>
+      </c>
+      <c r="M21">
+        <v>30.684929</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>-2.3319118793535158E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>3.5520633497951182</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>27.838525973389618</v>
+      </c>
+      <c r="V21" s="10">
+        <v>39.815593999999997</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>7.033708439124899</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="5"/>
+        <v>17.811220265783323</v>
+      </c>
+      <c r="AA21" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.20270426619070486</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>17.811220265783323</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <v>2034</v>
+      </c>
+      <c r="D22" s="10">
+        <v>17.259142000000001</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10.416224</v>
+      </c>
+      <c r="F22" s="10">
+        <v>17.648136000000001</v>
+      </c>
+      <c r="G22" s="10">
+        <v>5.7300690000000003</v>
+      </c>
+      <c r="H22" s="10">
+        <v>14.452249</v>
+      </c>
+      <c r="I22" s="10">
+        <v>7.8287360000000001</v>
+      </c>
+      <c r="J22">
+        <v>6.8080914962207055</v>
+      </c>
+      <c r="K22">
+        <v>21.696599493385872</v>
+      </c>
+      <c r="L22">
+        <v>22.304182682748014</v>
+      </c>
+      <c r="M22">
+        <v>30.661591999999999</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>-2.7866855297659508E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>3.5355238142398906</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="4"/>
+        <v>27.708900951310955</v>
+      </c>
+      <c r="V22" s="2">
+        <v>39.345008999999997</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>6.9505762450949522</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="5"/>
+        <v>17.797161544279319</v>
+      </c>
+      <c r="AA22" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.20333358627718365</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>17.797161544279319</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <v>2035</v>
+      </c>
+      <c r="D23" s="2">
+        <v>17.304172999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10.533543999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>17.732932999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5.708075</v>
+      </c>
+      <c r="H23" s="2">
+        <v>14.479870999999999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7.8772140000000004</v>
+      </c>
+      <c r="J23">
+        <v>6.9505762450949522</v>
+      </c>
+      <c r="K23">
+        <v>21.842730650154799</v>
+      </c>
+      <c r="L23">
+        <v>22.362376748848565</v>
+      </c>
+      <c r="M23">
+        <v>30.590456</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>-2.5330452987562677E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>3.5447483847822174</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="4"/>
+        <v>27.781196521898327</v>
+      </c>
+      <c r="V23" s="10">
+        <v>38.538448000000002</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>6.8080914962207055</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="5"/>
+        <v>17.882674592652826</v>
+      </c>
+      <c r="AA23" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.19950570769077358</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>17.882674592652826</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <v>2036</v>
+      </c>
+      <c r="D24" s="10">
+        <v>17.330513</v>
+      </c>
+      <c r="E24" s="10">
+        <v>10.617508000000001</v>
+      </c>
+      <c r="F24" s="10">
+        <v>17.810644</v>
+      </c>
+      <c r="G24" s="10">
+        <v>5.7150220000000003</v>
+      </c>
+      <c r="H24" s="10">
+        <v>14.522437999999999</v>
+      </c>
+      <c r="I24" s="10">
+        <v>7.8423379999999998</v>
+      </c>
+      <c r="J24">
+        <v>7.033708439124899</v>
+      </c>
+      <c r="K24">
+        <v>21.859599211933578</v>
+      </c>
+      <c r="L24">
+        <v>22.396416226121744</v>
+      </c>
+      <c r="M24">
+        <v>30.56176</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>-2.3846834217205452E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>3.5501441163468037</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="4"/>
+        <v>27.823484397567785</v>
+      </c>
+      <c r="V24" s="2">
+        <v>38.42268</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>6.7876402539616887</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="5"/>
+        <v>17.961041804961678</v>
+      </c>
+      <c r="AA24" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.19599770301102643</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>17.961041804961678</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C25" s="6">
+        <v>2037</v>
+      </c>
+      <c r="D25" s="2">
+        <v>17.438969</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10.790018999999999</v>
+      </c>
+      <c r="F25" s="2">
+        <v>17.963303</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5.7572369999999999</v>
+      </c>
+      <c r="H25" s="2">
+        <v>14.602482999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7.951867</v>
+      </c>
+      <c r="J25">
+        <v>7.162326310171391</v>
+      </c>
+      <c r="K25">
+        <v>22.153894736842105</v>
+      </c>
+      <c r="L25">
+        <v>22.536575130720831</v>
+      </c>
+      <c r="M25">
+        <v>30.536894</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>-1.7737974788281503E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>3.5723612561557934</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>27.997606411372143</v>
+      </c>
+      <c r="V25" s="10">
+        <v>37.973083000000003</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>6.7082157397096793</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="5"/>
+        <v>18.114989898074068</v>
+      </c>
+      <c r="AA25" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.18910642009862644</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>18.114989898074068</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <v>2038</v>
+      </c>
+      <c r="D26" s="10">
+        <v>17.411867000000001</v>
+      </c>
+      <c r="E26" s="10">
+        <v>10.779571000000001</v>
+      </c>
+      <c r="F26" s="10">
+        <v>17.957505999999999</v>
+      </c>
+      <c r="G26" s="10">
+        <v>5.8021440000000002</v>
+      </c>
+      <c r="H26" s="10">
+        <v>14.672610000000001</v>
+      </c>
+      <c r="I26" s="10">
+        <v>7.9175829999999996</v>
+      </c>
+      <c r="J26">
+        <v>7.160248645702727</v>
+      </c>
+      <c r="K26">
+        <v>22.522036025893609</v>
+      </c>
+      <c r="L26">
+        <v>22.501550912305582</v>
+      </c>
+      <c r="M26">
+        <v>30.483650000000001</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>-1.9264513737188821E-2</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>3.5668094293956027</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>27.954095173468058</v>
+      </c>
+      <c r="V26" s="2">
+        <v>37.221488999999998</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>6.575441303125972</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>18.109143946667519</v>
+      </c>
+      <c r="AA26" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.18936810638664869</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>18.109143946667519</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C27" s="6">
+        <v>2039</v>
+      </c>
+      <c r="D27" s="2">
+        <v>17.490908000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10.892239</v>
+      </c>
+      <c r="F27" s="2">
+        <v>18.049448000000002</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5.8514780000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>14.599186</v>
+      </c>
+      <c r="I27" s="2">
+        <v>7.8030869999999997</v>
+      </c>
+      <c r="J27">
+        <v>7.2557051475289391</v>
+      </c>
+      <c r="K27">
+        <v>22.8600455952716</v>
+      </c>
+      <c r="L27">
+        <v>22.603696482660528</v>
+      </c>
+      <c r="M27">
+        <v>30.522919000000002</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>-1.4812474586550982E-2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>3.5830009259254614</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="4"/>
+        <v>28.080992515183688</v>
+      </c>
+      <c r="V27" s="10">
+        <v>37.049571999999998</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>6.5450709398525007</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>18.201862329317343</v>
+      </c>
+      <c r="AA27" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.1852176905347703</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>18.201862329317343</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C28" s="5">
+        <v>2040</v>
+      </c>
+      <c r="D28" s="10">
+        <v>17.549710999999999</v>
+      </c>
+      <c r="E28" s="10">
+        <v>10.994493</v>
+      </c>
+      <c r="F28" s="10">
+        <v>18.168728000000002</v>
+      </c>
+      <c r="G28" s="10">
+        <v>5.8869449999999999</v>
+      </c>
+      <c r="H28" s="10">
+        <v>14.663568</v>
+      </c>
+      <c r="I28" s="10">
+        <v>7.7841149999999999</v>
+      </c>
+      <c r="J28">
+        <v>7.3624498631025501</v>
+      </c>
+      <c r="K28">
+        <v>23.270506051224316</v>
+      </c>
+      <c r="L28">
+        <v>22.679688258746133</v>
+      </c>
+      <c r="M28">
+        <v>30.412174</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>-1.1500354823707077E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>3.5950466815515951</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>28.175398511880388</v>
+      </c>
+      <c r="V28" s="2">
+        <v>36.778767000000002</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>6.497231306620928</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="5"/>
+        <v>18.322149561294797</v>
+      </c>
+      <c r="AA28" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.17983319158095121</v>
+      </c>
+      <c r="AB28" s="21">
+        <v>18.322149561294797</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C29" s="6">
+        <v>2041</v>
+      </c>
+      <c r="D29" s="2">
+        <v>17.560513</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11.034948</v>
+      </c>
+      <c r="F29" s="2">
+        <v>18.218325</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5.9120730000000004</v>
+      </c>
+      <c r="H29" s="2">
+        <v>14.683507000000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>7.754327</v>
+      </c>
+      <c r="J29">
+        <v>7.4030357780492988</v>
+      </c>
+      <c r="K29">
+        <v>23.438316915282858</v>
+      </c>
+      <c r="L29">
+        <v>22.693647804437287</v>
+      </c>
+      <c r="M29">
+        <v>30.354343</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>-1.089192468105709E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>3.5972594641013549</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>28.192740715106719</v>
+      </c>
+      <c r="V29" s="10">
+        <v>36.486365999999997</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>6.4455765860783041</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="5"/>
+        <v>18.372165371526066</v>
+      </c>
+      <c r="AA29" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.17759429994268361</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>18.372165371526066</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C30" s="5">
+        <v>2042</v>
+      </c>
+      <c r="D30" s="10">
+        <v>17.563236</v>
+      </c>
+      <c r="E30" s="10">
+        <v>11.100607999999999</v>
+      </c>
+      <c r="F30" s="10">
+        <v>18.258061999999999</v>
+      </c>
+      <c r="G30" s="10">
+        <v>5.9391160000000003</v>
+      </c>
+      <c r="H30" s="10">
+        <v>14.735060000000001</v>
+      </c>
+      <c r="I30" s="10">
+        <v>7.7562699999999998</v>
+      </c>
+      <c r="J30">
+        <v>7.4619993339003168</v>
+      </c>
+      <c r="K30">
+        <v>23.623209119054319</v>
+      </c>
+      <c r="L30">
+        <v>22.697166767862299</v>
+      </c>
+      <c r="M30">
+        <v>30.240352999999999</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>-1.0738549817287843E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>3.597817268848901</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="4"/>
+        <v>28.197112388813927</v>
+      </c>
+      <c r="V30" s="2">
+        <v>36.391556000000001</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>6.4288277238834208</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="5"/>
+        <v>18.412237921300445</v>
+      </c>
+      <c r="AA30" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.17580050521659452</v>
+      </c>
+      <c r="AB30" s="21">
+        <v>18.412237921300445</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C31" s="6">
+        <v>2043</v>
+      </c>
+      <c r="D31" s="2">
+        <v>17.546669000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <v>11.139621</v>
+      </c>
+      <c r="F31" s="2">
+        <v>18.251833000000001</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5.9666180000000004</v>
+      </c>
+      <c r="H31" s="2">
+        <v>14.765389000000001</v>
+      </c>
+      <c r="I31" s="2">
+        <v>7.4183019999999997</v>
+      </c>
+      <c r="J31">
+        <v>7.5367307749209242</v>
+      </c>
+      <c r="K31">
+        <v>23.650988460455949</v>
+      </c>
+      <c r="L31">
+        <v>22.67575704804511</v>
+      </c>
+      <c r="M31">
+        <v>30.145099999999999</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>-1.1671697583745885E-2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>3.5944235298652072</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="4"/>
+        <v>28.170514695715376</v>
+      </c>
+      <c r="V31" s="10">
+        <v>35.720669000000001</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>6.3103107540348944</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="5"/>
+        <v>18.405956321971242</v>
+      </c>
+      <c r="AA31" s="17">
+        <f>+(F31-$F$7)/$F$7</f>
+        <v>-0.17608169270807111</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>18.405956321971242</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C32" s="5">
+        <v>2044</v>
+      </c>
+      <c r="D32" s="10">
+        <v>17.597390999999998</v>
+      </c>
+      <c r="E32" s="10">
+        <v>11.207070999999999</v>
+      </c>
+      <c r="F32" s="10">
+        <v>18.307943000000002</v>
+      </c>
+      <c r="G32" s="10">
+        <v>5.9726999999999997</v>
+      </c>
+      <c r="H32" s="10">
+        <v>14.791893999999999</v>
+      </c>
+      <c r="I32" s="10">
+        <v>7.4435799999999999</v>
+      </c>
+      <c r="J32">
+        <v>7.6178324719350714</v>
+      </c>
+      <c r="K32">
+        <v>23.963003658879821</v>
+      </c>
+      <c r="L32">
+        <v>22.741305657242155</v>
+      </c>
+      <c r="M32">
+        <v>30.132867999999998</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>-8.8147457511699064E-3</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>3.6048138979904514</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="4"/>
+        <v>28.251946951968456</v>
+      </c>
+      <c r="V32" s="2">
+        <v>34.794925999999997</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>6.1467716554706273</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>18.46254012970309</v>
+      </c>
+      <c r="AA32" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.17354879334272241</v>
+      </c>
+      <c r="AB32" s="21">
+        <v>18.46254012970309</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C33" s="6">
+        <v>2045</v>
+      </c>
+      <c r="D33" s="2">
+        <v>17.654714999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>11.301014</v>
+      </c>
+      <c r="F33" s="2">
+        <v>18.399937000000001</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5.9695919999999996</v>
+      </c>
+      <c r="H33" s="2">
+        <v>14.794871000000001</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7.4907760000000003</v>
+      </c>
+      <c r="J33">
+        <v>7.7068134301201523</v>
+      </c>
+      <c r="K33">
+        <v>23.908189698846044</v>
+      </c>
+      <c r="L33">
+        <v>22.815386105048066</v>
+      </c>
+      <c r="M33">
+        <v>30.061810000000001</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>-5.585931689212586E-3</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>3.6165566814455903</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="4"/>
+        <v>28.343978469997161</v>
+      </c>
+      <c r="V33" s="10">
+        <v>34.048462000000001</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>6.0149034699475656</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="5"/>
+        <v>18.555310951454715</v>
+      </c>
+      <c r="AA33" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.1693960301237617</v>
+      </c>
+      <c r="AB33" s="21">
+        <v>18.555310951454715</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C34" s="5">
+        <v>2046</v>
+      </c>
+      <c r="D34" s="10">
+        <v>17.641705999999999</v>
+      </c>
+      <c r="E34" s="10">
+        <v>11.303032999999999</v>
+      </c>
+      <c r="F34" s="10">
+        <v>18.331693999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <v>5.9705440000000003</v>
+      </c>
+      <c r="H34" s="10">
+        <v>14.795175</v>
+      </c>
+      <c r="I34" s="10">
+        <v>7.612527</v>
+      </c>
+      <c r="J34">
+        <v>7.6956684853026136</v>
+      </c>
+      <c r="K34">
+        <v>23.778064171122995</v>
+      </c>
+      <c r="L34">
+        <v>22.7985744285163</v>
+      </c>
+      <c r="M34">
+        <v>29.857541999999999</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>-6.3186726377158784E-3</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>3.6138917964067252</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>28.32309301158471</v>
+      </c>
+      <c r="V34" s="2">
+        <v>33.144852</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>5.8552743235714582</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="5"/>
+        <v>18.486491689450713</v>
+      </c>
+      <c r="AA34" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.17247663342779834</v>
+      </c>
+      <c r="AB34" s="21">
+        <v>18.486491689450713</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C35" s="6">
+        <v>2047</v>
+      </c>
+      <c r="D35" s="2">
+        <v>17.640809999999998</v>
+      </c>
+      <c r="E35" s="2">
+        <v>11.340735</v>
+      </c>
+      <c r="F35" s="2">
+        <v>18.363651000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5.9868420000000002</v>
+      </c>
+      <c r="H35" s="2">
+        <v>14.820199000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>7.0969660000000001</v>
+      </c>
+      <c r="J35">
+        <v>7.7282714413449805</v>
+      </c>
+      <c r="K35">
+        <v>23.837890233605403</v>
+      </c>
+      <c r="L35">
+        <v>22.79741651767208</v>
+      </c>
+      <c r="M35">
+        <v>29.840845000000002</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>-6.3691404592132721E-3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>3.6137082513998204</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="4"/>
+        <v>28.321654517408557</v>
+      </c>
+      <c r="V35" s="10">
+        <v>32.133915000000002</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>5.6766850977439196</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="5"/>
+        <v>18.518718542840244</v>
+      </c>
+      <c r="AA35" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.17103404093058835</v>
+      </c>
+      <c r="AB35" s="21">
+        <v>18.518718542840244</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C36" s="5">
+        <v>2048</v>
+      </c>
+      <c r="D36" s="10">
+        <v>17.651005000000001</v>
+      </c>
+      <c r="E36" s="10">
+        <v>11.3683</v>
+      </c>
+      <c r="F36" s="10">
+        <v>18.422395999999999</v>
+      </c>
+      <c r="G36" s="10">
+        <v>6.0018849999999997</v>
+      </c>
+      <c r="H36" s="10">
+        <v>14.852997</v>
+      </c>
+      <c r="I36" s="10">
+        <v>7.1653989999999999</v>
+      </c>
+      <c r="J36">
+        <v>7.7695765274550599</v>
+      </c>
+      <c r="K36">
+        <v>24.084192513368983</v>
+      </c>
+      <c r="L36">
+        <v>22.81059163045872</v>
+      </c>
+      <c r="M36">
+        <v>29.74597</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>-5.7949000125999154E-3</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>3.6157966904013756</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="4"/>
+        <v>28.338022205049036</v>
+      </c>
+      <c r="V36" s="2">
+        <v>30.686609000000001</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>5.4210081781380959</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="5"/>
+        <v>18.577959601211433</v>
+      </c>
+      <c r="AA36" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.16838219325250237</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>18.577959601211433</v>
+      </c>
+    </row>
+    <row r="37" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C37" s="6">
+        <v>2049</v>
+      </c>
+      <c r="D37" s="2">
+        <v>17.672739</v>
+      </c>
+      <c r="E37" s="2">
+        <v>11.407825000000001</v>
+      </c>
+      <c r="F37" s="2">
+        <v>18.41095</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6.0373299999999999</v>
+      </c>
+      <c r="H37" s="2">
+        <v>14.898279</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7.1997559999999998</v>
+      </c>
+      <c r="J37">
+        <v>7.7967868480437721</v>
+      </c>
+      <c r="K37">
+        <v>24.142552772305095</v>
+      </c>
+      <c r="L37">
+        <v>22.838678722298329</v>
+      </c>
+      <c r="M37">
+        <v>29.525368</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>-4.5707173871276131E-3</v>
+      </c>
+      <c r="Q37">
+        <f>+$Q$38*(100%+P37)</f>
+        <v>3.6202488859148425</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="4"/>
+        <v>28.372915321594213</v>
+      </c>
+      <c r="V37" s="10">
+        <v>33.092869</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>5.8460911561473825</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="5"/>
+        <v>18.566416948149612</v>
+      </c>
+      <c r="AA37" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.16889888486069662</v>
+      </c>
+      <c r="AB37" s="21">
+        <v>18.566416948149612</v>
+      </c>
+    </row>
+    <row r="38" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C38" s="5">
+        <v>2050</v>
+      </c>
+      <c r="D38" s="10">
+        <v>17.753886999999999</v>
+      </c>
+      <c r="E38" s="10">
+        <v>11.518442</v>
+      </c>
+      <c r="F38" s="10">
+        <v>18.398764</v>
+      </c>
+      <c r="G38" s="10">
+        <v>6.0670190000000002</v>
+      </c>
+      <c r="H38" s="10">
+        <v>14.937911</v>
+      </c>
+      <c r="I38" s="10">
+        <v>7.3050709999999999</v>
+      </c>
+      <c r="J38">
+        <v>7.833966990242339</v>
+      </c>
+      <c r="K38">
+        <v>24.220488601182101</v>
+      </c>
+      <c r="L38">
+        <v>22.94354719237289</v>
+      </c>
+      <c r="M38">
+        <v>29.364443000000001</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>0.8*4.54609</f>
+        <v>3.6368720000000003</v>
+      </c>
+      <c r="R38">
+        <f>+Q38/$E$54</f>
+        <v>28.503195372270948</v>
+      </c>
+      <c r="V38" s="2">
+        <v>56.261001999999998</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>9.9389069659747591</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="5"/>
+        <v>18.554128046331392</v>
+      </c>
+      <c r="AA38" s="17">
+        <f>+(F38-$F$7)/$F$7</f>
+        <v>-0.16944898130814162</v>
+      </c>
+      <c r="AB38" s="21">
+        <v>18.554128046331392</v>
+      </c>
+    </row>
+    <row r="42" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s">
+        <v>110</v>
+      </c>
+      <c r="R42" s="8">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="S42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="R43" s="18">
+        <f>+R42/R45</f>
+        <v>22.339540412044375</v>
+      </c>
+      <c r="S43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>4.62</v>
+      </c>
+      <c r="E44">
+        <f>+D44/42</f>
+        <v>0.11</v>
+      </c>
+      <c r="P44" t="s">
+        <v>113</v>
+      </c>
+      <c r="R44" s="19">
+        <v>5.048</v>
+      </c>
+      <c r="S44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>5.0540000000000003</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E55" si="6">+D45/42</f>
+        <v>0.12033333333333333</v>
+      </c>
+      <c r="R45">
+        <f>+R44/42</f>
+        <v>0.12019047619047619</v>
+      </c>
+      <c r="S45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>0.12433333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>5.67</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>0.13850000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>0.13757142857142857</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50">
+        <v>5.048</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>0.12019047619047619</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51">
+        <v>5.7229999999999999</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>0.13626190476190475</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>6.1310000000000002</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>0.14597619047619048</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>0.13242857142857142</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54">
+        <v>5.359</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>0.12759523809523809</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>8.4595238095238098E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57">
+        <v>323.60000000000002</v>
+      </c>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="E60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63">
+        <v>41.4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64">
+        <f>141.5/(131.5+D63)</f>
+        <v>0.81839213418160783</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="9">
+        <f>+D64*(7.801796-1.3213*D64*D64)</f>
+        <v>5.6606830300963775</v>
+      </c>
+      <c r="E65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C6:M6" xr:uid="{6513D269-EF74-4E24-A1B8-AEAD8B991A71}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:M38">
+      <sortCondition ref="C6"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BF464E-6270-486E-82D5-13CD768EAFF1}">
   <dimension ref="C4:W65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M7" sqref="M7:M38"/>
     </sheetView>
   </sheetViews>
@@ -1675,55 +4293,55 @@
   <sheetData>
     <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
       <c r="V5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="4" t="s">
         <v>80</v>
       </c>
       <c r="P6" t="s">
@@ -1732,30 +4350,30 @@
       <c r="Q6" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>2050</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>17.753886999999999</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>11.518442</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>18.398764</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>6.0670190000000002</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>14.937911</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>7.3050709999999999</v>
       </c>
       <c r="J7">
@@ -1782,7 +4400,7 @@
         <f>+Q7/$E$54</f>
         <v>22.94354719237289</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="10">
         <v>44.345604000000002</v>
       </c>
       <c r="W7">
@@ -1791,25 +4409,25 @@
       </c>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>2049</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="2">
         <v>17.672739</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="2">
         <v>11.407825000000001</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="2">
         <v>18.41095</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="2">
         <v>6.0373299999999999</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="2">
         <v>14.898279</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="2">
         <v>7.1997559999999998</v>
       </c>
       <c r="J8">
@@ -1829,14 +4447,14 @@
         <v>-0.19873268859825066</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q7:Q36" si="1">+$Q$38*(100%+P8)</f>
+        <f t="shared" ref="Q8:Q36" si="1">+$Q$38*(100%+P8)</f>
         <v>2.9141066493523033</v>
       </c>
       <c r="R8">
         <f>+Q8/$E$54</f>
         <v>22.838678722298329</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="2">
         <v>44.135139000000002</v>
       </c>
       <c r="W8">
@@ -1845,25 +4463,25 @@
       </c>
     </row>
     <row r="9" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>2048</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>17.651005000000001</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>11.3683</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>18.422395999999999</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>6.0018849999999997</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>14.852997</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="10">
         <v>7.1653989999999999</v>
       </c>
       <c r="J9">
@@ -1890,7 +4508,7 @@
         <f>+Q9/$E$54</f>
         <v>22.81059163045872</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="10">
         <v>43.981110000000001</v>
       </c>
       <c r="W9">
@@ -1899,25 +4517,25 @@
       </c>
     </row>
     <row r="10" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>2047</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="2">
         <v>17.640809999999998</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="2">
         <v>11.340735</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="2">
         <v>18.363651000000001</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="2">
         <v>5.9868420000000002</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="2">
         <v>14.820199000000001</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="2">
         <v>7.0969660000000001</v>
       </c>
       <c r="J10">
@@ -1941,10 +4559,10 @@
         <v>2.9088417885286826</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R7:R37" si="3">+Q10/$E$54</f>
+        <f t="shared" ref="R10:R37" si="3">+Q10/$E$54</f>
         <v>22.79741651767208</v>
       </c>
-      <c r="V10" s="15">
+      <c r="V10" s="2">
         <v>43.747295000000001</v>
       </c>
       <c r="W10">
@@ -1953,25 +4571,25 @@
       </c>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>2046</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>17.641705999999999</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="10">
         <v>11.303032999999999</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>18.331693999999999</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>5.9705440000000003</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>14.795175</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="10">
         <v>7.612527</v>
       </c>
       <c r="J11">
@@ -1998,7 +4616,7 @@
         <f t="shared" si="3"/>
         <v>22.7985744285163</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="10">
         <v>43.562739999999998</v>
       </c>
       <c r="W11">
@@ -2007,25 +4625,25 @@
       </c>
     </row>
     <row r="12" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>2045</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="2">
         <v>17.654714999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="2">
         <v>11.301014</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="2">
         <v>18.399937000000001</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="2">
         <v>5.9695919999999996</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="2">
         <v>14.794871000000001</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="2">
         <v>7.4907760000000003</v>
       </c>
       <c r="J12">
@@ -2052,7 +4670,7 @@
         <f t="shared" si="3"/>
         <v>22.815386105048066</v>
       </c>
-      <c r="V12" s="15">
+      <c r="V12" s="2">
         <v>43.625827999999998</v>
       </c>
       <c r="W12">
@@ -2061,25 +4679,25 @@
       </c>
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>2044</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>17.597390999999998</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>11.207070999999999</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>18.307943000000002</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>5.9726999999999997</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>14.791893999999999</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="10">
         <v>7.4435799999999999</v>
       </c>
       <c r="J13">
@@ -2106,7 +4724,7 @@
         <f t="shared" si="3"/>
         <v>22.741305657242155</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="10">
         <v>43.122135</v>
       </c>
       <c r="W13">
@@ -2115,25 +4733,25 @@
       </c>
     </row>
     <row r="14" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>2043</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="2">
         <v>17.546669000000001</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="2">
         <v>11.139621</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="2">
         <v>18.251833000000001</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="2">
         <v>5.9666180000000004</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="2">
         <v>14.765389000000001</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="2">
         <v>7.4183019999999997</v>
       </c>
       <c r="J14">
@@ -2160,7 +4778,7 @@
         <f t="shared" si="3"/>
         <v>22.67575704804511</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="2">
         <v>42.663043999999999</v>
       </c>
       <c r="W14">
@@ -2169,25 +4787,25 @@
       </c>
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>2042</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>17.563236</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>11.100607999999999</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="10">
         <v>18.258061999999999</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>5.9391160000000003</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="10">
         <v>14.735060000000001</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="10">
         <v>7.7562699999999998</v>
       </c>
       <c r="J15">
@@ -2214,7 +4832,7 @@
         <f t="shared" si="3"/>
         <v>22.697166767862299</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="10">
         <v>42.240012999999998</v>
       </c>
       <c r="W15">
@@ -2223,25 +4841,25 @@
       </c>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>2041</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="2">
         <v>17.560513</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="2">
         <v>11.034948</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="2">
         <v>18.218325</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="2">
         <v>5.9120730000000004</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="2">
         <v>14.683507000000001</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="2">
         <v>7.754327</v>
       </c>
       <c r="J16">
@@ -2268,7 +4886,7 @@
         <f t="shared" si="3"/>
         <v>22.693647804437287</v>
       </c>
-      <c r="V16" s="15">
+      <c r="V16" s="2">
         <v>41.906238999999999</v>
       </c>
       <c r="W16">
@@ -2277,25 +4895,25 @@
       </c>
     </row>
     <row r="17" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>2040</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>17.549710999999999</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>10.994493</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>18.168728000000002</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="10">
         <v>5.8869449999999999</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <v>14.663568</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="10">
         <v>7.7841149999999999</v>
       </c>
       <c r="J17">
@@ -2322,7 +4940,7 @@
         <f t="shared" si="3"/>
         <v>22.679688258746133</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="10">
         <v>41.676495000000003</v>
       </c>
       <c r="W17">
@@ -2331,25 +4949,25 @@
       </c>
     </row>
     <row r="18" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>2039</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="2">
         <v>17.490908000000001</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="2">
         <v>10.892239</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="2">
         <v>18.049448000000002</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="2">
         <v>5.8514780000000002</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="2">
         <v>14.599186</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="2">
         <v>7.8030869999999997</v>
       </c>
       <c r="J18">
@@ -2376,7 +4994,7 @@
         <f t="shared" si="3"/>
         <v>22.603696482660528</v>
       </c>
-      <c r="V18" s="15">
+      <c r="V18" s="2">
         <v>41.072246999999997</v>
       </c>
       <c r="W18">
@@ -2385,25 +5003,25 @@
       </c>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C19" s="9">
+      <c r="C19" s="5">
         <v>2038</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>17.411867000000001</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>10.779571000000001</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>17.957505999999999</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
         <v>5.8021440000000002</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="10">
         <v>14.672610000000001</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="10">
         <v>7.9175829999999996</v>
       </c>
       <c r="J19">
@@ -2430,7 +5048,7 @@
         <f t="shared" si="3"/>
         <v>22.501550912305582</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="10">
         <v>40.531897999999998</v>
       </c>
       <c r="W19">
@@ -2439,25 +5057,25 @@
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>2037</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="2">
         <v>17.438969</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="2">
         <v>10.790018999999999</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="2">
         <v>17.963303</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="2">
         <v>5.7572369999999999</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="2">
         <v>14.602482999999999</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="2">
         <v>7.951867</v>
       </c>
       <c r="J20">
@@ -2484,7 +5102,7 @@
         <f t="shared" si="3"/>
         <v>22.536575130720831</v>
       </c>
-      <c r="V20" s="15">
+      <c r="V20" s="2">
         <v>40.543658999999998</v>
       </c>
       <c r="W20">
@@ -2493,25 +5111,25 @@
       </c>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C21" s="9">
+      <c r="C21" s="5">
         <v>2036</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>17.330513</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="10">
         <v>10.617508000000001</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>17.810644</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>5.7150220000000003</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>14.522437999999999</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="10">
         <v>7.8423379999999998</v>
       </c>
       <c r="J21">
@@ -2538,7 +5156,7 @@
         <f t="shared" si="3"/>
         <v>22.396416226121744</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="10">
         <v>39.815593999999997</v>
       </c>
       <c r="W21">
@@ -2547,25 +5165,25 @@
       </c>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>2035</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="2">
         <v>17.304172999999999</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="2">
         <v>10.533543999999999</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="2">
         <v>17.732932999999999</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="2">
         <v>5.708075</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="2">
         <v>14.479870999999999</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="2">
         <v>7.8772140000000004</v>
       </c>
       <c r="J22">
@@ -2592,7 +5210,7 @@
         <f t="shared" si="3"/>
         <v>22.362376748848565</v>
       </c>
-      <c r="V22" s="15">
+      <c r="V22" s="2">
         <v>39.345008999999997</v>
       </c>
       <c r="W22">
@@ -2601,25 +5219,25 @@
       </c>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>2034</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>17.259142000000001</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>10.416224</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="10">
         <v>17.648136000000001</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="10">
         <v>5.7300690000000003</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="10">
         <v>14.452249</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="10">
         <v>7.8287360000000001</v>
       </c>
       <c r="J23">
@@ -2646,7 +5264,7 @@
         <f t="shared" si="3"/>
         <v>22.304182682748014</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="10">
         <v>38.538448000000002</v>
       </c>
       <c r="W23">
@@ -2655,25 +5273,25 @@
       </c>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>2033</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="2">
         <v>17.339881999999999</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="2">
         <v>10.40132</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="2">
         <v>17.662077</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="2">
         <v>5.7102120000000003</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="2">
         <v>14.391714</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="2">
         <v>7.9062109999999999</v>
       </c>
       <c r="J24">
@@ -2700,7 +5318,7 @@
         <f t="shared" si="3"/>
         <v>22.408523889848865</v>
       </c>
-      <c r="V24" s="15">
+      <c r="V24" s="2">
         <v>38.42268</v>
       </c>
       <c r="W24">
@@ -2709,25 +5327,25 @@
       </c>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C25" s="9">
+      <c r="C25" s="5">
         <v>2032</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>17.270149</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="10">
         <v>10.300452</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="10">
         <v>17.510418000000001</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>5.663062</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <v>14.324771999999999</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="10">
         <v>7.8548650000000002</v>
       </c>
       <c r="J25">
@@ -2754,7 +5372,7 @@
         <f t="shared" si="3"/>
         <v>22.318407152237224</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="10">
         <v>37.973083000000003</v>
       </c>
       <c r="W25">
@@ -2763,25 +5381,25 @@
       </c>
     </row>
     <row r="26" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>2031</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="2">
         <v>17.186886000000001</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="2">
         <v>10.192373</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="2">
         <v>17.413017</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="2">
         <v>5.6449150000000001</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="2">
         <v>14.336748999999999</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="2">
         <v>7.7789000000000001</v>
       </c>
       <c r="J26">
@@ -2808,7 +5426,7 @@
         <f t="shared" si="3"/>
         <v>22.210805443953372</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="2">
         <v>37.221488999999998</v>
       </c>
       <c r="W26">
@@ -2817,25 +5435,25 @@
       </c>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C27" s="9">
+      <c r="C27" s="5">
         <v>2030</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="10">
         <v>17.171029999999998</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="10">
         <v>10.149875</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="10">
         <v>17.40991</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="10">
         <v>5.6681879999999998</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="10">
         <v>14.377727</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="10">
         <v>7.8627279999999997</v>
       </c>
       <c r="J27">
@@ -2862,7 +5480,7 @@
         <f t="shared" si="3"/>
         <v>22.190314557406534</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="10">
         <v>37.049571999999998</v>
       </c>
       <c r="W27">
@@ -2871,25 +5489,25 @@
       </c>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>2029</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="2">
         <v>16.802975</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="2">
         <v>9.9782410000000006</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="2">
         <v>16.919364999999999</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="2">
         <v>5.6257210000000004</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="2">
         <v>14.306072</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="2">
         <v>7.7771509999999999</v>
       </c>
       <c r="J28">
@@ -2916,7 +5534,7 @@
         <f t="shared" si="3"/>
         <v>21.714672954985119</v>
       </c>
-      <c r="V28" s="15">
+      <c r="V28" s="2">
         <v>36.778767000000002</v>
       </c>
       <c r="W28">
@@ -2925,25 +5543,25 @@
       </c>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C29" s="9">
+      <c r="C29" s="5">
         <v>2028</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="10">
         <v>16.769113999999998</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="10">
         <v>9.9187809999999992</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="10">
         <v>16.888532999999999</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="10">
         <v>5.6131640000000003</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="10">
         <v>14.262862999999999</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="10">
         <v>7.7569189999999999</v>
       </c>
       <c r="J29">
@@ -2970,7 +5588,7 @@
         <f t="shared" si="3"/>
         <v>21.670914005101018</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="10">
         <v>36.486365999999997</v>
       </c>
       <c r="W29">
@@ -2979,25 +5597,25 @@
       </c>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>2027</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="2">
         <v>16.783676</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="2">
         <v>9.8999179999999996</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="2">
         <v>16.843440999999999</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="2">
         <v>5.5409459999999999</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="2">
         <v>14.141339</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="2">
         <v>7.7486030000000001</v>
       </c>
       <c r="J30">
@@ -3024,7 +5642,7 @@
         <f t="shared" si="3"/>
         <v>21.689732640942022</v>
       </c>
-      <c r="V30" s="15">
+      <c r="V30" s="2">
         <v>36.391556000000001</v>
       </c>
       <c r="W30">
@@ -3033,25 +5651,25 @@
       </c>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C31" s="9">
+      <c r="C31" s="5">
         <v>2026</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="10">
         <v>16.707825</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="10">
         <v>9.7851110000000006</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="10">
         <v>16.778722999999999</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="10">
         <v>5.4217820000000003</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="10">
         <v>13.954438</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="10">
         <v>7.6230700000000002</v>
       </c>
       <c r="J31">
@@ -3078,7 +5696,7 @@
         <f t="shared" si="3"/>
         <v>21.591709543347189</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="10">
         <v>35.720669000000001</v>
       </c>
       <c r="W31">
@@ -3087,25 +5705,25 @@
       </c>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="10">
+      <c r="C32" s="6">
         <v>2025</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="2">
         <v>16.561509999999998</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="2">
         <v>9.6156070000000007</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="2">
         <v>16.734932000000001</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="2">
         <v>5.2639560000000003</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="2">
         <v>13.653877</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="2">
         <v>7.4363780000000004</v>
       </c>
       <c r="J32">
@@ -3132,7 +5750,7 @@
         <f t="shared" si="3"/>
         <v>21.402625028646149</v>
       </c>
-      <c r="V32" s="15">
+      <c r="V32" s="2">
         <v>34.794925999999997</v>
       </c>
       <c r="W32">
@@ -3141,25 +5759,25 @@
       </c>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C33" s="9">
+      <c r="C33" s="5">
         <v>2024</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="10">
         <v>16.544916000000001</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="10">
         <v>9.5380599999999998</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="10">
         <v>16.842721999999998</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="10">
         <v>5.053318</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="10">
         <v>13.341879</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="10">
         <v>7.4027380000000003</v>
       </c>
       <c r="J33">
@@ -3186,7 +5804,7 @@
         <f t="shared" si="3"/>
         <v>21.381180416426293</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="10">
         <v>34.048462000000001</v>
       </c>
       <c r="W33">
@@ -3195,25 +5813,25 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C34" s="10">
+      <c r="C34" s="6">
         <v>2023</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="2">
         <v>16.503633000000001</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="2">
         <v>9.4126089999999998</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="2">
         <v>17.011948</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="2">
         <v>4.923</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="2">
         <v>13.168752</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="2">
         <v>7.230556</v>
       </c>
       <c r="J34">
@@ -3240,7 +5858,7 @@
         <f t="shared" si="3"/>
         <v>21.327829932741071</v>
       </c>
-      <c r="V34" s="15">
+      <c r="V34" s="2">
         <v>33.144852</v>
       </c>
       <c r="W34">
@@ -3249,25 +5867,25 @@
       </c>
     </row>
     <row r="35" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C35" s="9">
+      <c r="C35" s="5">
         <v>2022</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="10">
         <v>16.584773999999999</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="10">
         <v>9.2805809999999997</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="10">
         <v>17.141463999999999</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="10">
         <v>4.8739290000000004</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="10">
         <v>13.114326999999999</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="10">
         <v>6.9828840000000003</v>
       </c>
       <c r="J35">
@@ -3294,7 +5912,7 @@
         <f t="shared" si="3"/>
         <v>21.432689356637166</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="10">
         <v>32.133915000000002</v>
       </c>
       <c r="W35">
@@ -3303,25 +5921,25 @@
       </c>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>2021</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="2">
         <v>16.387792999999999</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="2">
         <v>9.0484980000000004</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="2">
         <v>17.237448000000001</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="2">
         <v>4.860271</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="2">
         <v>13.301057</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="2">
         <v>6.8701829999999999</v>
       </c>
       <c r="J36">
@@ -3348,7 +5966,7 @@
         <f t="shared" si="3"/>
         <v>21.178128602166844</v>
       </c>
-      <c r="V36" s="15">
+      <c r="V36" s="2">
         <v>30.686609000000001</v>
       </c>
       <c r="W36">
@@ -3357,25 +5975,25 @@
       </c>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C37" s="9">
+      <c r="C37" s="5">
         <v>2020</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="10">
         <v>16.950485</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="10">
         <v>9.7005839999999992</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="10">
         <v>17.725964000000001</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="10">
         <v>4.77142</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="10">
         <v>14.846825000000001</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="10">
         <v>6.9323819999999996</v>
       </c>
       <c r="J37">
@@ -3402,7 +6020,7 @@
         <f t="shared" si="3"/>
         <v>21.905301781582185</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="10">
         <v>33.092869</v>
       </c>
       <c r="W37">
@@ -3411,25 +6029,25 @@
       </c>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C38" s="10">
+      <c r="C38" s="6">
         <v>2019</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="2">
         <v>22.055983999999999</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="2">
         <v>14.641048</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="2">
         <v>22.152479</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="2">
         <v>5.0315300000000001</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="2">
         <v>18.517455999999999</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="2">
         <v>9.6494669999999996</v>
       </c>
       <c r="J38">
@@ -3456,7 +6074,7 @@
         <f>+Q38/$E$54</f>
         <v>28.503195372270948</v>
       </c>
-      <c r="V38" s="15">
+      <c r="V38" s="2">
         <v>56.261001999999998</v>
       </c>
       <c r="W38">
@@ -3465,7 +6083,7 @@
       </c>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G42" t="s">
@@ -3473,7 +6091,7 @@
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E43" t="s">
@@ -3681,7 +6299,7 @@
       <c r="C65" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="9">
         <f>+D64*(7.801796-1.3213*D64*D64)</f>
         <v>5.6606830300963775</v>
       </c>
@@ -3722,298 +6340,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>44.345604000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>44.135139000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>43.981110000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>43.747295000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>43.562739999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>43.625827999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>43.122135</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>42.663043999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>42.240012999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>41.906238999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>41.676495000000003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>41.072246999999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>40.531897999999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>40.543658999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>39.815593999999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>39.345008999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>38.538448000000002</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>38.42268</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>37.973083000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>37.221488999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>37.049571999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>36.778767000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>36.486365999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>36.391556000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>35.720669000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>34.794925999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>34.048462000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>33.144852</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>32.133915000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>30.686609000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>33.092869</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>56.261001999999998</v>
       </c>
     </row>
@@ -4047,298 +6665,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>7.3050709999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>7.1997559999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>7.1653989999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>7.0969660000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>7.612527</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>7.4907760000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>7.4435799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>7.4183019999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>7.7562699999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>7.754327</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>7.7841149999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>7.8030869999999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>7.9175829999999996</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>7.951867</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>7.8423379999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>7.8772140000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>7.8287360000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>7.9062109999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>7.8548650000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>7.7789000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>7.8627279999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>7.7771509999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>7.7569189999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>7.7486030000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>7.6230700000000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>7.4363780000000004</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>7.4027380000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>7.230556</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>6.9828840000000003</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>6.8701829999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>6.9323819999999996</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>9.6494669999999996</v>
       </c>
     </row>
@@ -4372,298 +6990,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>14.937911</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>14.898279</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>14.852997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>14.820199000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>14.795175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>14.794871000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>14.791893999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>14.765389000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>14.735060000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>14.683507000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>14.663568</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>14.599186</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>14.672610000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>14.602482999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>14.522437999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>14.479870999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>14.452249</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>14.391714</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>14.324771999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>14.336748999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>14.377727</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>14.306072</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>14.262862999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>14.141339</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>13.954438</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>13.653877</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>13.341879</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>13.168752</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>13.114326999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>13.301057</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>14.846825000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>18.517455999999999</v>
       </c>
     </row>
@@ -4697,298 +7315,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>6.0670190000000002</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>6.0373299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>6.0018849999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>5.9868420000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>5.9705440000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>5.9695919999999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>5.9726999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>5.9666180000000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>5.9391160000000003</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>5.9120730000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>5.8869449999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>5.8514780000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>5.8021440000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>5.7572369999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>5.7150220000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>5.708075</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>5.7300690000000003</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>5.7102120000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>5.663062</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>5.6449150000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>5.6681879999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>5.6257210000000004</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>5.6131640000000003</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>5.5409459999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>5.4217820000000003</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>5.2639560000000003</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>5.053318</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4.923</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>4.8739290000000004</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>4.860271</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>4.77142</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>5.0315300000000001</v>
       </c>
     </row>
@@ -5022,298 +7640,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>29.364443000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>29.525368</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>29.74597</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>29.840845000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>29.857541999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>30.061810000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>30.132867999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>30.145099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>30.240352999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>30.354343</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>30.412174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>30.522919000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>30.483650000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>30.536894</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>30.56176</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>30.590456</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>30.661591999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>30.684929</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>30.651215000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>30.565812999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>30.663418</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>30.690297999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>30.755602</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>30.791485000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>30.596184000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>30.402079000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>29.995864999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>29.747502999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>29.674088000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>29.724421</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>29.811402999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>30.453309999999998</v>
       </c>
     </row>
@@ -5347,298 +7965,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>11.518442</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>11.407825000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>11.3683</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>11.340735</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>11.303032999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>11.301014</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>11.207070999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>11.139621</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>11.100607999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>11.034948</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>10.994493</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>10.892239</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>10.779571000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>10.790018999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>10.617508000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>10.533543999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>10.416224</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>10.40132</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>10.300452</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>10.192373</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>10.149875</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>9.9782410000000006</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>9.9187809999999992</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>9.8999179999999996</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>9.7851110000000006</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>9.6156070000000007</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>9.5380599999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>9.4126089999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>9.2805809999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>9.0484980000000004</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>9.7005839999999992</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>14.641048</v>
       </c>
     </row>
@@ -5672,298 +8290,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>17.753886999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>17.672739</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>17.651005000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>17.640809999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>17.641705999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>17.654714999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>17.597390999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>17.546669000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>17.563236</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>17.560513</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>17.549710999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>17.490908000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>17.411867000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>17.438969</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>17.330513</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>17.304172999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>17.259142000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>17.339881999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>17.270149</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>17.186886000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>17.171029999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>16.802975</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>16.769113999999998</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>16.783676</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>16.707825</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>16.561509999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>16.544916000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>16.503633000000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>16.584773999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>16.387792999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>16.950485</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>22.055983999999999</v>
       </c>
     </row>
@@ -5997,298 +8615,298 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>18.398764</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>18.41095</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>18.422395999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>18.363651000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>18.331693999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>18.399937000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>18.307943000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>18.251833000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>18.258061999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>18.218325</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>18.168728000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>18.049448000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>17.957505999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>17.963303</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>17.810644</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>17.732932999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>17.648136000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>17.662077</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>17.510418000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>17.413017</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>17.40991</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>16.919364999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>16.888532999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>16.843440999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>16.778722999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>16.734932000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>16.842721999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>17.011948</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>17.141463999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>17.237448000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>17.725964000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>22.152479</v>
       </c>
     </row>
